--- a/UX_Questions.xlsx
+++ b/UX_Questions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arinapolyanskaya/Desktop/UV/Erasmus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arinapolyanskaya/Desktop/UV/Erasmus/WebTechnologies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BDD88A-05B8-064D-94EB-2CC21D37E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C569B6-B2F8-6A4B-AA84-A68CE2B0CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13980" xr2:uid="{39A0B7F7-B123-A341-BCA6-2784941F9458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -87,33 +87,6 @@
   </si>
   <si>
     <t>Would you want a feature to see schedule conflicts?</t>
-  </si>
-  <si>
-    <t>CogSci</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>colors (too unfriendly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no english, unclear how to use to include classes, too much information, uclear on the meaning </t>
-  </si>
-  <si>
-    <t>clearer user interface, english included</t>
-  </si>
-  <si>
-    <t>additional information under the search bar</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search bar for classes,time table format, info about casses </t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -477,7 +450,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,9 +482,6 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -520,9 +490,6 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -531,9 +498,6 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -542,9 +506,6 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -553,9 +514,6 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -564,9 +522,6 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -575,9 +530,6 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -586,9 +538,6 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -597,9 +546,6 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -608,9 +554,6 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -619,9 +562,6 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -629,9 +569,6 @@
       </c>
       <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
